--- a/ManageSYS/templates/生产/投入产出表.xlsx
+++ b/ManageSYS/templates/生产/投入产出表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F20F5E-6AEB-4F4A-9874-67D9A6653730}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,14 +83,14 @@
     <t>四、备注</t>
   </si>
   <si>
-    <t>产入产出表</t>
+    <t>投入产出表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -338,6 +339,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -367,12 +374,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,6 +384,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -431,7 +435,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,9 +468,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,6 +520,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -674,7 +712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -692,57 +730,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -752,7 +790,7 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -762,7 +800,7 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
@@ -772,37 +810,37 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
@@ -812,7 +850,7 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
@@ -822,37 +860,37 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -862,7 +900,7 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
@@ -872,7 +910,7 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
@@ -882,7 +920,7 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
@@ -895,19 +933,14 @@
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A11"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="C3:C4"/>
@@ -921,6 +954,11 @@
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
